--- a/REGULAR/PICNIC GROVE/ANARNA, CRISTINA.xlsx
+++ b/REGULAR/PICNIC GROVE/ANARNA, CRISTINA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="219">
   <si>
     <t>PERIOD</t>
   </si>
@@ -684,6 +684,12 @@
   </si>
   <si>
     <t>UT(1-4-0)</t>
+  </si>
+  <si>
+    <t>11/6-10/2023</t>
+  </si>
+  <si>
+    <t>11/27-29/2023</t>
   </si>
 </sst>
 </file>
@@ -1411,7 +1417,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K459" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K460" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1740,12 +1746,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K459"/>
+  <dimension ref="A2:K460"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4245" topLeftCell="A373" activePane="bottomLeft"/>
+      <pane ySplit="4245" topLeftCell="A385" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="F384" sqref="F384"/>
+      <selection pane="bottomLeft" activeCell="K401" sqref="K401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1906,7 +1912,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>187.36400000000006</v>
+        <v>186.11400000000006</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1916,7 +1922,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>341.16699999999997</v>
+        <v>354.91699999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -10002,7 +10008,10 @@
       <c r="D388" s="38"/>
       <c r="E388" s="9"/>
       <c r="F388" s="20"/>
-      <c r="G388" s="13"/>
+      <c r="G388" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H388" s="38"/>
       <c r="I388" s="9"/>
       <c r="J388" s="11"/>
@@ -10019,7 +10028,10 @@
       <c r="D389" s="38"/>
       <c r="E389" s="9"/>
       <c r="F389" s="20"/>
-      <c r="G389" s="13"/>
+      <c r="G389" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H389" s="38"/>
       <c r="I389" s="9"/>
       <c r="J389" s="11"/>
@@ -10036,7 +10048,10 @@
       <c r="D390" s="38"/>
       <c r="E390" s="9"/>
       <c r="F390" s="20"/>
-      <c r="G390" s="13"/>
+      <c r="G390" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H390" s="38"/>
       <c r="I390" s="9"/>
       <c r="J390" s="11"/>
@@ -10053,7 +10068,10 @@
       <c r="D391" s="38"/>
       <c r="E391" s="9"/>
       <c r="F391" s="20"/>
-      <c r="G391" s="13"/>
+      <c r="G391" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H391" s="38"/>
       <c r="I391" s="9"/>
       <c r="J391" s="11"/>
@@ -10070,7 +10088,10 @@
       <c r="D392" s="38"/>
       <c r="E392" s="9"/>
       <c r="F392" s="20"/>
-      <c r="G392" s="13"/>
+      <c r="G392" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H392" s="38"/>
       <c r="I392" s="9"/>
       <c r="J392" s="11"/>
@@ -10087,7 +10108,10 @@
       <c r="D393" s="38"/>
       <c r="E393" s="9"/>
       <c r="F393" s="20"/>
-      <c r="G393" s="13"/>
+      <c r="G393" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H393" s="38"/>
       <c r="I393" s="9"/>
       <c r="J393" s="11"/>
@@ -10106,7 +10130,10 @@
       <c r="D394" s="38"/>
       <c r="E394" s="9"/>
       <c r="F394" s="20"/>
-      <c r="G394" s="13"/>
+      <c r="G394" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H394" s="38">
         <v>10</v>
       </c>
@@ -10127,7 +10154,10 @@
       <c r="D395" s="38"/>
       <c r="E395" s="9"/>
       <c r="F395" s="20"/>
-      <c r="G395" s="13"/>
+      <c r="G395" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H395" s="38"/>
       <c r="I395" s="9"/>
       <c r="J395" s="11"/>
@@ -10144,7 +10174,10 @@
       <c r="D396" s="38"/>
       <c r="E396" s="9"/>
       <c r="F396" s="20"/>
-      <c r="G396" s="13"/>
+      <c r="G396" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H396" s="38"/>
       <c r="I396" s="9"/>
       <c r="J396" s="11"/>
@@ -10157,11 +10190,16 @@
       <c r="B397" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C397" s="13"/>
+      <c r="C397" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D397" s="38"/>
       <c r="E397" s="9"/>
       <c r="F397" s="20"/>
-      <c r="G397" s="13"/>
+      <c r="G397" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H397" s="38">
         <v>2</v>
       </c>
@@ -10176,11 +10214,16 @@
         <v>45199</v>
       </c>
       <c r="B398" s="20"/>
-      <c r="C398" s="13"/>
+      <c r="C398" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D398" s="38"/>
       <c r="E398" s="9"/>
       <c r="F398" s="20"/>
-      <c r="G398" s="13"/>
+      <c r="G398" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H398" s="38"/>
       <c r="I398" s="9"/>
       <c r="J398" s="11"/>
@@ -10191,11 +10234,16 @@
         <v>45230</v>
       </c>
       <c r="B399" s="20"/>
-      <c r="C399" s="13"/>
+      <c r="C399" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D399" s="38"/>
       <c r="E399" s="9"/>
       <c r="F399" s="20"/>
-      <c r="G399" s="13"/>
+      <c r="G399" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H399" s="38"/>
       <c r="I399" s="9"/>
       <c r="J399" s="11"/>
@@ -10205,35 +10253,46 @@
       <c r="A400" s="39">
         <v>45260</v>
       </c>
-      <c r="B400" s="20"/>
+      <c r="B400" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C400" s="13"/>
-      <c r="D400" s="38"/>
+      <c r="D400" s="38">
+        <v>5</v>
+      </c>
       <c r="E400" s="9"/>
       <c r="F400" s="20"/>
       <c r="G400" s="13"/>
       <c r="H400" s="38"/>
       <c r="I400" s="9"/>
       <c r="J400" s="11"/>
-      <c r="K400" s="20"/>
+      <c r="K400" s="20" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A401" s="39">
-        <v>45291</v>
-      </c>
-      <c r="B401" s="20"/>
+      <c r="A401" s="39"/>
+      <c r="B401" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="C401" s="13"/>
       <c r="D401" s="38"/>
       <c r="E401" s="9"/>
       <c r="F401" s="20"/>
-      <c r="G401" s="13"/>
+      <c r="G401" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H401" s="38"/>
       <c r="I401" s="9"/>
       <c r="J401" s="11"/>
-      <c r="K401" s="20"/>
+      <c r="K401" s="20" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="39">
-        <v>45322</v>
+        <v>45291</v>
       </c>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -10248,7 +10307,7 @@
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="39">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -10262,16 +10321,15 @@
       <c r="K403" s="20"/>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A404" s="39"/>
+      <c r="A404" s="39">
+        <v>45351</v>
+      </c>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
       <c r="D404" s="38"/>
       <c r="E404" s="9"/>
       <c r="F404" s="20"/>
-      <c r="G404" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G404" s="13"/>
       <c r="H404" s="38"/>
       <c r="I404" s="9"/>
       <c r="J404" s="11"/>
@@ -11142,20 +11200,36 @@
       <c r="K458" s="20"/>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A459" s="40"/>
-      <c r="B459" s="15"/>
-      <c r="C459" s="41"/>
-      <c r="D459" s="42"/>
+      <c r="A459" s="39"/>
+      <c r="B459" s="20"/>
+      <c r="C459" s="13"/>
+      <c r="D459" s="38"/>
       <c r="E459" s="9"/>
-      <c r="F459" s="15"/>
-      <c r="G459" s="41" t="str">
+      <c r="F459" s="20"/>
+      <c r="G459" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H459" s="42"/>
+      <c r="H459" s="38"/>
       <c r="I459" s="9"/>
-      <c r="J459" s="12"/>
-      <c r="K459" s="15"/>
+      <c r="J459" s="11"/>
+      <c r="K459" s="20"/>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A460" s="40"/>
+      <c r="B460" s="15"/>
+      <c r="C460" s="41"/>
+      <c r="D460" s="42"/>
+      <c r="E460" s="9"/>
+      <c r="F460" s="15"/>
+      <c r="G460" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H460" s="42"/>
+      <c r="I460" s="9"/>
+      <c r="J460" s="12"/>
+      <c r="K460" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
